--- a/biology/Mycologie/Russule_noircissante/Russule_noircissante.xlsx
+++ b/biology/Mycologie/Russule_noircissante/Russule_noircissante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russula nigricans
-La Russule noircissante[1], Russula nigricans est une espèce de champignons basidiomycètes de la famille des Russulacées.
+La Russule noircissante, Russula nigricans est une espèce de champignons basidiomycètes de la famille des Russulacées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 décembre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 décembre 2023) :
 Russula nigricans subsp. eccentrica (Peck) Singer, 1958
 Russula nigricans subsp. nigricans
 Russula nigricans var. adusta (Pers.) Barbier, 1907
@@ -548,10 +562,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Russula nigricans Fr., 1838[2].
-Russula nigricans a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Russula nigricans Fr., 1838.
+Russula nigricans a pour synonymes :
 Agaricus adustus var. crassus Alb. &amp; Schwein., 1805
 Agaricus nigrescens Bull. (1785), 1785
 Agaricus nigrescens Krombh., 1845
@@ -585,7 +601,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fries, E.M., Epicrisis Systematis Mycologici, 1838, p. 1-610</t>
         </is>
